--- a/data/Stages/Entreprises_stage_2021.xlsx
+++ b/data/Stages/Entreprises_stage_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmnen\Desktop\PROJET CONTACT\Stages\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmnen\Desktop\Projet-Contact-main\data\Stages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40EDFEC8-BE45-4298-A9B8-A806DEAA5EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86044F73-15B9-4A85-8666-274260753E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14280" yWindow="6195" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Suivi stage" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="270">
   <si>
     <t>Organisme d'accueil</t>
   </si>
@@ -244,9 +244,6 @@
     <t>SAINT HERBLAIN CEDEX</t>
   </si>
   <si>
-    <t>Mr VIARDIN Serge ou Mr BOUAMAR Ahmed</t>
-  </si>
-  <si>
     <t>02 40 18 75 21</t>
   </si>
   <si>
@@ -421,9 +418,6 @@
     <t>eric.dutertre@saftbatteries.com</t>
   </si>
   <si>
-    <t>Mr MELIN Pascal et Mr GOURDON Thierry</t>
-  </si>
-  <si>
     <t xml:space="preserve">pascal.melin@orange.com / thierry.gourdon@orange.com </t>
   </si>
   <si>
@@ -830,6 +824,12 @@
   </si>
   <si>
     <t xml:space="preserve">Bordeaux Cedex </t>
+  </si>
+  <si>
+    <t>Mr VIARDIN Serge</t>
+  </si>
+  <si>
+    <t>Mr MELIN Pascal</t>
   </si>
 </sst>
 </file>
@@ -1271,9 +1271,9 @@
   </sheetPr>
   <dimension ref="A1:L1032"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1369,7 +1369,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>41</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
@@ -1560,7 +1560,7 @@
         <v>41</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
@@ -1584,7 +1584,7 @@
         <v>41</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
@@ -1708,13 +1708,13 @@
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="F19" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1725,20 +1725,20 @@
     </row>
     <row r="20" spans="1:12" ht="12.75">
       <c r="A20" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="F20" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1756,13 +1756,13 @@
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="F21" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1773,20 +1773,20 @@
     </row>
     <row r="22" spans="1:12" ht="12.75">
       <c r="A22" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="F22" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1800,17 +1800,17 @@
         <v>72</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="F23" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1828,13 +1828,13 @@
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="F24" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1845,20 +1845,20 @@
     </row>
     <row r="25" spans="1:12" ht="12.75">
       <c r="A25" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="F25" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1869,18 +1869,18 @@
     </row>
     <row r="26" spans="1:12" ht="12.75">
       <c r="A26" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1891,18 +1891,18 @@
     </row>
     <row r="27" spans="1:12" ht="12.75">
       <c r="A27" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -1967,22 +1967,22 @@
     </row>
     <row r="31" spans="1:12" ht="12.75">
       <c r="A31" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="E31" s="7">
         <v>652338285</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1993,22 +1993,22 @@
     </row>
     <row r="32" spans="1:12" ht="12.75">
       <c r="A32" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="D32" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="E32" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="F32" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -2019,22 +2019,22 @@
     </row>
     <row r="33" spans="1:12" ht="12" customHeight="1">
       <c r="A33" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="E33" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="F33" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -2045,22 +2045,22 @@
     </row>
     <row r="34" spans="1:12" ht="16.5" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="E34" s="7">
         <v>786391831</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -2085,22 +2085,22 @@
     </row>
     <row r="36" spans="1:12" ht="12.75">
       <c r="A36" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C36" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="E36" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="F36" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -2117,16 +2117,16 @@
         <v>22</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>133</v>
+        <v>269</v>
       </c>
       <c r="E37" s="7">
         <v>608800846</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -2137,22 +2137,22 @@
     </row>
     <row r="38" spans="1:12" ht="12.75">
       <c r="A38" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="D38" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="E38" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="F38" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>140</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -2163,22 +2163,22 @@
     </row>
     <row r="39" spans="1:12" ht="12.75">
       <c r="A39" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="D39" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="E39" s="7">
         <v>146790557</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -2189,22 +2189,22 @@
     </row>
     <row r="40" spans="1:12" ht="12.75">
       <c r="A40" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E40" s="7">
         <v>549618880</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -2215,22 +2215,22 @@
     </row>
     <row r="41" spans="1:12" ht="12.75">
       <c r="A41" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="D41" s="5" t="s">
         <v>151</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>153</v>
       </c>
       <c r="E41" s="6">
         <v>679847386</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -2241,22 +2241,22 @@
     </row>
     <row r="42" spans="1:12" ht="12.75">
       <c r="A42" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="D42" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="E42" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="F42" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>160</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -2267,22 +2267,22 @@
     </row>
     <row r="43" spans="1:12" ht="12.75">
       <c r="A43" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="D43" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="E43" s="7">
         <v>251531521</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -2293,22 +2293,22 @@
     </row>
     <row r="44" spans="1:12" ht="12.75">
       <c r="A44" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="E44" s="7">
         <v>689575479</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -2319,22 +2319,22 @@
     </row>
     <row r="45" spans="1:12" ht="12.75">
       <c r="A45" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="D45" s="5" t="s">
         <v>171</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>173</v>
       </c>
       <c r="E45" s="6">
         <v>545370812</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -2345,22 +2345,22 @@
     </row>
     <row r="46" spans="1:12" ht="12.75">
       <c r="A46" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -2371,22 +2371,22 @@
     </row>
     <row r="47" spans="1:12" ht="12.75">
       <c r="A47" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E47" s="7">
         <v>682650039</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -2397,22 +2397,22 @@
     </row>
     <row r="48" spans="1:12" ht="12.75">
       <c r="A48" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="D48" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="E48" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="F48" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -2423,22 +2423,22 @@
     </row>
     <row r="49" spans="1:12" ht="12.75">
       <c r="A49" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="D49" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="E49" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="F49" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -2449,20 +2449,20 @@
     </row>
     <row r="50" spans="1:12" ht="12.75">
       <c r="A50" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>194</v>
       </c>
       <c r="E50" s="7"/>
       <c r="F50" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -2473,22 +2473,22 @@
     </row>
     <row r="51" spans="1:12" ht="12.75">
       <c r="A51" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="D51" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="E51" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="F51" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>201</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -2499,22 +2499,22 @@
     </row>
     <row r="52" spans="1:12" ht="12.75">
       <c r="A52" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="D52" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>205</v>
       </c>
       <c r="E52" s="7">
         <v>549667771</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -2525,22 +2525,22 @@
     </row>
     <row r="53" spans="1:12" ht="12.75">
       <c r="A53" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D53" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>209</v>
       </c>
       <c r="E53" s="7">
         <v>18643195885</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -2551,20 +2551,20 @@
     </row>
     <row r="54" spans="1:12" ht="12.75" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F54" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>214</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="1"/>
@@ -2575,20 +2575,20 @@
     </row>
     <row r="55" spans="1:12" ht="12.75">
       <c r="A55" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C55" s="11"/>
       <c r="D55" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F55" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>218</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="1"/>
@@ -2599,20 +2599,20 @@
     </row>
     <row r="56" spans="1:12" ht="12.75">
       <c r="A56" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F56" s="4" t="s">
         <v>220</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>222</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="1"/>
@@ -2623,20 +2623,20 @@
     </row>
     <row r="57" spans="1:12" ht="12.75">
       <c r="A57" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C57" s="11"/>
       <c r="D57" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F57" s="4" t="s">
         <v>223</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>225</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="1"/>
@@ -2647,20 +2647,20 @@
     </row>
     <row r="58" spans="1:12" ht="12.75">
       <c r="A58" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F58" s="4" t="s">
         <v>227</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>229</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="1"/>
@@ -2671,20 +2671,20 @@
     </row>
     <row r="59" spans="1:12" ht="12.75">
       <c r="A59" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C59" s="11"/>
       <c r="D59" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F59" s="4" t="s">
         <v>231</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>233</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="1"/>
@@ -2695,20 +2695,20 @@
     </row>
     <row r="60" spans="1:12" ht="12.75">
       <c r="A60" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C60" s="11"/>
       <c r="D60" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F60" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>237</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="1"/>
@@ -2719,18 +2719,18 @@
     </row>
     <row r="61" spans="1:12" ht="12.75">
       <c r="A61" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C61" s="11"/>
       <c r="D61" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="1"/>
@@ -2741,20 +2741,20 @@
     </row>
     <row r="62" spans="1:12" ht="12.75">
       <c r="A62" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F62" s="4" t="s">
         <v>242</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>244</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="1"/>
@@ -2765,20 +2765,20 @@
     </row>
     <row r="63" spans="1:12" ht="12.75">
       <c r="A63" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F63" s="4" t="s">
         <v>246</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>248</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="1"/>
@@ -2791,16 +2791,18 @@
       <c r="A64" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B64" s="4"/>
+      <c r="B64" s="4" t="s">
+        <v>260</v>
+      </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F64" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>251</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="1"/>
@@ -2811,20 +2813,20 @@
     </row>
     <row r="65" spans="1:12" ht="12.75">
       <c r="A65" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F65" s="4" t="s">
         <v>253</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>255</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="1"/>
